--- a/src/test/resources/Test_Data.xlsx
+++ b/src/test/resources/Test_Data.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15810" windowHeight="6345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13620" windowHeight="3330"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Search" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -179,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -285,6 +286,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -331,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,9 +372,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,6 +407,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="140" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -643,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -666,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
@@ -733,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -821,10 +832,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1007,7 +1018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
